--- a/32/32_orthogonal_vectors.xlsx
+++ b/32/32_orthogonal_vectors.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\cogNeuroResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/cogNeuro/32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B5FD2-AE54-4CA5-BF76-94828B8B240B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687CA74-FAF1-744D-86E3-B5AFF8FE832B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="32_orthogonal_vectors" sheetId="1" r:id="rId1"/>
-    <sheet name="PreviousVectors" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="PreviousVectors" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Vector #</t>
   </si>
@@ -151,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,21 +1059,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH35" sqref="AH35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="30" width="3.28515625" customWidth="1"/>
-    <col min="31" max="33" width="2.85546875" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" customWidth="1"/>
-    <col min="38" max="38" width="3.85546875" customWidth="1"/>
-    <col min="39" max="69" width="3.7109375" customWidth="1"/>
+    <col min="3" max="30" width="3.33203125" customWidth="1"/>
+    <col min="31" max="33" width="2.83203125" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" customWidth="1"/>
+    <col min="38" max="38" width="3.83203125" customWidth="1"/>
+    <col min="39" max="69" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="15.75" thickBot="1">
+    <row r="2" spans="1:69" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1576,7 +1577,7 @@
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1722,7 +1723,7 @@
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1870,7 +1871,7 @@
       <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2020,7 +2021,7 @@
       <c r="BO7" s="5"/>
       <c r="BP7" s="5"/>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="BO8" s="5"/>
       <c r="BP8" s="5"/>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2326,7 +2327,7 @@
       <c r="BO9" s="5"/>
       <c r="BP9" s="5"/>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2482,7 +2483,7 @@
       <c r="BO10" s="5"/>
       <c r="BP10" s="5"/>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2640,7 +2641,7 @@
       <c r="BO11" s="5"/>
       <c r="BP11" s="5"/>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2800,7 +2801,7 @@
       <c r="BO12" s="5"/>
       <c r="BP12" s="5"/>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2962,7 +2963,7 @@
       <c r="BO13" s="5"/>
       <c r="BP13" s="5"/>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3126,7 +3127,7 @@
       <c r="BO14" s="5"/>
       <c r="BP14" s="5"/>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="BO15" s="5"/>
       <c r="BP15" s="5"/>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3460,7 +3461,7 @@
       <c r="BO16" s="5"/>
       <c r="BP16" s="5"/>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3630,7 +3631,7 @@
       <c r="BO17" s="5"/>
       <c r="BP17" s="5"/>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3802,7 +3803,7 @@
       <c r="BO18" s="5"/>
       <c r="BP18" s="5"/>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3976,7 +3977,7 @@
       <c r="BO19" s="5"/>
       <c r="BP19" s="5"/>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4152,7 +4153,7 @@
       <c r="BO20" s="5"/>
       <c r="BP20" s="5"/>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4330,7 +4331,7 @@
       <c r="BO21" s="5"/>
       <c r="BP21" s="5"/>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4510,7 +4511,7 @@
       <c r="BO22" s="5"/>
       <c r="BP22" s="5"/>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4692,7 +4693,7 @@
       <c r="BO23" s="5"/>
       <c r="BP23" s="5"/>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4876,7 +4877,7 @@
       <c r="BO24" s="5"/>
       <c r="BP24" s="5"/>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5062,7 +5063,7 @@
       <c r="BO25" s="5"/>
       <c r="BP25" s="5"/>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5250,7 +5251,7 @@
       <c r="BO26" s="5"/>
       <c r="BP26" s="5"/>
     </row>
-    <row r="27" spans="1:68">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5440,7 +5441,7 @@
       <c r="BO27" s="5"/>
       <c r="BP27" s="5"/>
     </row>
-    <row r="28" spans="1:68">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5632,7 +5633,7 @@
       <c r="BO28" s="5"/>
       <c r="BP28" s="5"/>
     </row>
-    <row r="29" spans="1:68">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5826,7 +5827,7 @@
       <c r="BO29" s="5"/>
       <c r="BP29" s="5"/>
     </row>
-    <row r="30" spans="1:68">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6022,7 +6023,7 @@
       <c r="BO30" s="5"/>
       <c r="BP30" s="5"/>
     </row>
-    <row r="31" spans="1:68">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6220,7 +6221,7 @@
       <c r="BO31" s="5"/>
       <c r="BP31" s="5"/>
     </row>
-    <row r="32" spans="1:68">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="BO32" s="5"/>
       <c r="BP32" s="5"/>
     </row>
-    <row r="33" spans="1:68">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6622,7 +6623,7 @@
       </c>
       <c r="BP33" s="5"/>
     </row>
-    <row r="34" spans="1:68" ht="15.75" thickBot="1">
+    <row r="34" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AJ34">
         <v>32</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:68" ht="15.75" thickBot="1">
+    <row r="35" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AK35" s="6" t="s">
         <v>37</v>
       </c>
@@ -6735,6 +6736,1611 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB9BBF-A830-4A49-A928-6FC800AAC279}">
+  <dimension ref="A1:AH16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="33" width="3.33203125" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>SUM(B2:AG2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH16" si="0">SUM(B3:AG3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ34"/>
   <sheetViews>
@@ -6742,13 +8348,13 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="33" width="3.5703125" customWidth="1"/>
-    <col min="38" max="69" width="3.28515625" customWidth="1"/>
+    <col min="2" max="33" width="3.5" customWidth="1"/>
+    <col min="38" max="69" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="31.5" thickBot="1">
+    <row r="1" spans="1:69" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6793,7 +8399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="16.5" thickBot="1">
+    <row r="2" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6994,7 +8600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:69" ht="16.5" thickBot="1">
+    <row r="3" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7135,7 +8741,7 @@
       <c r="BP3" s="5"/>
       <c r="BQ3" s="5"/>
     </row>
-    <row r="4" spans="1:69" ht="16.5" thickBot="1">
+    <row r="4" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7279,7 +8885,7 @@
       <c r="BP4" s="5"/>
       <c r="BQ4" s="5"/>
     </row>
-    <row r="5" spans="1:69" ht="16.5" thickBot="1">
+    <row r="5" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7425,7 +9031,7 @@
       <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
     </row>
-    <row r="6" spans="1:69" ht="16.5" thickBot="1">
+    <row r="6" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7573,7 +9179,7 @@
       <c r="BP6" s="5"/>
       <c r="BQ6" s="5"/>
     </row>
-    <row r="7" spans="1:69" ht="16.5" thickBot="1">
+    <row r="7" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7723,7 +9329,7 @@
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
     </row>
-    <row r="8" spans="1:69" ht="16.5" thickBot="1">
+    <row r="8" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7874,7 +9480,7 @@
       <c r="BP8" s="5"/>
       <c r="BQ8" s="5"/>
     </row>
-    <row r="9" spans="1:69" ht="16.5" thickBot="1">
+    <row r="9" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8027,7 +9633,7 @@
       <c r="BP9" s="5"/>
       <c r="BQ9" s="5"/>
     </row>
-    <row r="10" spans="1:69" ht="16.5" thickBot="1">
+    <row r="10" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8182,7 +9788,7 @@
       <c r="BP10" s="5"/>
       <c r="BQ10" s="5"/>
     </row>
-    <row r="11" spans="1:69" ht="16.5" thickBot="1">
+    <row r="11" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8339,7 +9945,7 @@
       <c r="BP11" s="5"/>
       <c r="BQ11" s="5"/>
     </row>
-    <row r="12" spans="1:69" ht="16.5" thickBot="1">
+    <row r="12" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8498,7 +10104,7 @@
       <c r="BP12" s="5"/>
       <c r="BQ12" s="5"/>
     </row>
-    <row r="13" spans="1:69" ht="16.5" thickBot="1">
+    <row r="13" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8659,7 +10265,7 @@
       <c r="BP13" s="5"/>
       <c r="BQ13" s="5"/>
     </row>
-    <row r="14" spans="1:69" ht="16.5" thickBot="1">
+    <row r="14" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8822,7 +10428,7 @@
       <c r="BP14" s="5"/>
       <c r="BQ14" s="5"/>
     </row>
-    <row r="15" spans="1:69" ht="16.5" thickBot="1">
+    <row r="15" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8987,7 +10593,7 @@
       <c r="BP15" s="5"/>
       <c r="BQ15" s="5"/>
     </row>
-    <row r="16" spans="1:69" ht="16.5" thickBot="1">
+    <row r="16" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9154,7 +10760,7 @@
       <c r="BP16" s="5"/>
       <c r="BQ16" s="5"/>
     </row>
-    <row r="17" spans="1:69" ht="16.5" thickBot="1">
+    <row r="17" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -9323,7 +10929,7 @@
       <c r="BP17" s="5"/>
       <c r="BQ17" s="5"/>
     </row>
-    <row r="18" spans="1:69" ht="16.5" thickBot="1">
+    <row r="18" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -9494,7 +11100,7 @@
       <c r="BP18" s="5"/>
       <c r="BQ18" s="5"/>
     </row>
-    <row r="19" spans="1:69" ht="16.5" thickBot="1">
+    <row r="19" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -9667,7 +11273,7 @@
       <c r="BP19" s="5"/>
       <c r="BQ19" s="5"/>
     </row>
-    <row r="20" spans="1:69" ht="16.5" thickBot="1">
+    <row r="20" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -9842,7 +11448,7 @@
       <c r="BP20" s="5"/>
       <c r="BQ20" s="5"/>
     </row>
-    <row r="21" spans="1:69" ht="16.5" thickBot="1">
+    <row r="21" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10019,7 +11625,7 @@
       <c r="BP21" s="5"/>
       <c r="BQ21" s="5"/>
     </row>
-    <row r="22" spans="1:69" ht="16.5" thickBot="1">
+    <row r="22" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10198,7 +11804,7 @@
       <c r="BP22" s="5"/>
       <c r="BQ22" s="5"/>
     </row>
-    <row r="23" spans="1:69" ht="16.5" thickBot="1">
+    <row r="23" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10379,7 +11985,7 @@
       <c r="BP23" s="5"/>
       <c r="BQ23" s="5"/>
     </row>
-    <row r="24" spans="1:69" ht="16.5" thickBot="1">
+    <row r="24" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10562,7 +12168,7 @@
       <c r="BP24" s="5"/>
       <c r="BQ24" s="5"/>
     </row>
-    <row r="25" spans="1:69" ht="16.5" thickBot="1">
+    <row r="25" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10747,7 +12353,7 @@
       <c r="BP25" s="5"/>
       <c r="BQ25" s="5"/>
     </row>
-    <row r="26" spans="1:69" ht="16.5" thickBot="1">
+    <row r="26" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10934,7 +12540,7 @@
       <c r="BP26" s="5"/>
       <c r="BQ26" s="5"/>
     </row>
-    <row r="27" spans="1:69" ht="16.5" thickBot="1">
+    <row r="27" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -11123,7 +12729,7 @@
       <c r="BP27" s="5"/>
       <c r="BQ27" s="5"/>
     </row>
-    <row r="28" spans="1:69" ht="16.5" thickBot="1">
+    <row r="28" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -11314,7 +12920,7 @@
       <c r="BP28" s="5"/>
       <c r="BQ28" s="5"/>
     </row>
-    <row r="29" spans="1:69" ht="16.5" thickBot="1">
+    <row r="29" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -11507,7 +13113,7 @@
       <c r="BP29" s="5"/>
       <c r="BQ29" s="5"/>
     </row>
-    <row r="30" spans="1:69" ht="16.5" thickBot="1">
+    <row r="30" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -11702,7 +13308,7 @@
       <c r="BP30" s="5"/>
       <c r="BQ30" s="5"/>
     </row>
-    <row r="31" spans="1:69" ht="16.5" thickBot="1">
+    <row r="31" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -11899,7 +13505,7 @@
       <c r="BP31" s="5"/>
       <c r="BQ31" s="5"/>
     </row>
-    <row r="32" spans="1:69" ht="16.5" thickBot="1">
+    <row r="32" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -12098,7 +13704,7 @@
       <c r="BP32" s="5"/>
       <c r="BQ32" s="5"/>
     </row>
-    <row r="33" spans="1:69" ht="16.5" thickBot="1">
+    <row r="33" spans="1:69" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -12299,7 +13905,7 @@
       </c>
       <c r="BQ33" s="5"/>
     </row>
-    <row r="34" spans="1:69" ht="15.75" thickBot="1">
+    <row r="34" spans="1:69" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AK34" s="6" t="s">
         <v>34</v>
       </c>

--- a/32/32_orthogonal_vectors.xlsx
+++ b/32/32_orthogonal_vectors.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/cogNeuro/32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687CA74-FAF1-744D-86E3-B5AFF8FE832B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC2570-3FF0-8945-B810-E0E123AA9843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="29040" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="32_orthogonal_vectors" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="PreviousVectors" sheetId="2" r:id="rId3"/>
+    <sheet name="16_binary" sheetId="4" r:id="rId2"/>
+    <sheet name="input_output_mapping" sheetId="5" r:id="rId3"/>
+    <sheet name="PreviousVectors" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>Vector #</t>
   </si>
@@ -147,12 +148,123 @@
   <si>
     <t>Finding correlation with vector of all 1's produces error… I changed them to zero here</t>
   </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t>13b</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>16a</t>
+  </si>
+  <si>
+    <t>16b</t>
+  </si>
+  <si>
+    <t>SPECIFIC EXEMPLARS</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE CATEGORIES</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>ABSTRACT PAIRINGS</t>
+  </si>
+  <si>
+    <t>[(3, 7), (4, 14), (13, 2), (1, 0), (12, 16), (10, 5), (11, 9), (6, 8)]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +414,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -683,7 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -702,6 +821,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1060,7 +1180,7 @@
   <dimension ref="A1:BQ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AH16"/>
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6737,10 +6857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB9BBF-A830-4A49-A928-6FC800AAC279}">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6966,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH16" si="0">SUM(B3:AG3)</f>
+        <f t="shared" ref="AH3:AH17" si="0">SUM(B3:AG3)</f>
         <v>16</v>
       </c>
     </row>
@@ -8331,6 +8451,111 @@
         <v>1</v>
       </c>
       <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -8341,6 +8566,5056 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E0234-5477-3E49-AD04-B5AA0DD3B107}">
+  <dimension ref="A1:BR34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM33" sqref="AM33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="34" width="3.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.83203125" customWidth="1"/>
+    <col min="37" max="69" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <f>SUM(AL2:BQ2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" ref="BR3:BR17" si="0">SUM(AL3:BQ3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AK5">
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK6">
+        <v>5</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AK7">
+        <v>6</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AK9">
+        <v>8</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK10">
+        <v>9</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK12">
+        <v>11</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BJ12">
+        <v>1</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AK13">
+        <v>12</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>1</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1</v>
+      </c>
+      <c r="W14" s="8">
+        <v>1</v>
+      </c>
+      <c r="X14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK14">
+        <v>13</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <v>1</v>
+      </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AK15">
+        <v>14</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>1</v>
+      </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1</v>
+      </c>
+      <c r="S16" s="8">
+        <v>1</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>1</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK16">
+        <v>15</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BK16">
+        <v>1</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AK17">
+        <v>16</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>1</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+    </row>
+    <row r="20" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1</v>
+      </c>
+      <c r="S20" s="8">
+        <v>1</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1</v>
+      </c>
+      <c r="X20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AK21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>1</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+    </row>
+    <row r="24" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1</v>
+      </c>
+      <c r="S24" s="8">
+        <v>1</v>
+      </c>
+      <c r="T24" s="8">
+        <v>0</v>
+      </c>
+      <c r="U24" s="8">
+        <v>0</v>
+      </c>
+      <c r="V24" s="8">
+        <v>0</v>
+      </c>
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>1</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8">
+        <v>1</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+    </row>
+    <row r="26" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0</v>
+      </c>
+      <c r="T26" s="8">
+        <v>1</v>
+      </c>
+      <c r="U26" s="8">
+        <v>1</v>
+      </c>
+      <c r="V26" s="8">
+        <v>1</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>1</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <v>1</v>
+      </c>
+      <c r="U27" s="8">
+        <v>1</v>
+      </c>
+      <c r="V27" s="8">
+        <v>1</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+    </row>
+    <row r="28" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>1</v>
+      </c>
+      <c r="S28" s="8">
+        <v>1</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8">
+        <v>0</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+    </row>
+    <row r="30" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>1</v>
+      </c>
+      <c r="U30" s="8">
+        <v>1</v>
+      </c>
+      <c r="V30" s="8">
+        <v>1</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8">
+        <v>1</v>
+      </c>
+      <c r="P31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+    </row>
+    <row r="32" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>1</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8">
+        <v>1</v>
+      </c>
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>1</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>1</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+    </row>
+    <row r="34" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ34"/>
   <sheetViews>

--- a/32/32_orthogonal_vectors.xlsx
+++ b/32/32_orthogonal_vectors.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/cogNeuro/32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC2570-3FF0-8945-B810-E0E123AA9843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F404477-6B2B-044C-9088-55561507F341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="460" windowWidth="29040" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="1060" windowWidth="23100" windowHeight="18920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="32_orthogonal_vectors" sheetId="1" r:id="rId1"/>
-    <sheet name="16_binary" sheetId="4" r:id="rId2"/>
-    <sheet name="input_output_mapping" sheetId="5" r:id="rId3"/>
-    <sheet name="PreviousVectors" sheetId="2" r:id="rId4"/>
+    <sheet name="8 intermediate" sheetId="6" r:id="rId2"/>
+    <sheet name="16_binary" sheetId="4" r:id="rId3"/>
+    <sheet name="input_output_mapping" sheetId="5" r:id="rId4"/>
+    <sheet name="PreviousVectors" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
   <si>
     <t>Vector #</t>
   </si>
@@ -258,6 +259,54 @@
   </si>
   <si>
     <t>[(3, 7), (4, 14), (13, 2), (1, 0), (12, 16), (10, 5), (11, 9), (6, 8)]</t>
+  </si>
+  <si>
+    <t>Original 32 orthogonal vectors</t>
+  </si>
+  <si>
+    <t>Next, randomly select 8 of those to act as intermediate category</t>
+  </si>
+  <si>
+    <t>Flip two elements randomly in each of above intermediate categories to generate specific exemplar INPUT vectors</t>
+  </si>
+  <si>
+    <t>26a</t>
+  </si>
+  <si>
+    <t>26b</t>
+  </si>
+  <si>
+    <t>27a</t>
+  </si>
+  <si>
+    <t>27b</t>
+  </si>
+  <si>
+    <t>25a</t>
+  </si>
+  <si>
+    <t>25b</t>
+  </si>
+  <si>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>Pearson correlation</t>
+  </si>
+  <si>
+    <t>Randomly generated abstract pairs: [(27, 17),(25,4), (26,10), (13, 9)]</t>
+  </si>
+  <si>
+    <t>Now we randomly select 4 vectors from the 32 orthogonal to act as our abstract category output vectors</t>
+  </si>
+  <si>
+    <t>Finally, randomly select 16 vectors from original 32 orthogonal to act as specific exemplar output vectors</t>
+  </si>
+  <si>
+    <t>These can serve as output vectors for intermediate categories</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1229,7 @@
   <dimension ref="A1:BQ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection sqref="A1:AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6856,6 +6905,7915 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17880E-106C-1641-BA9B-A263E2D87D7F}">
+  <dimension ref="A1:AH87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:AG79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="33" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>SUM(B2:AG2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH33" si="0">SUM(B3:AG3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <f>CORREL(B46:AG46,B47:AG47)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" ref="AH47:AH61" si="1">CORREL(B48:AG48,B49:AG49)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>31</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>23</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>24</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
+      <c r="AF87">
+        <v>1</v>
+      </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB9BBF-A830-4A49-A928-6FC800AAC279}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
@@ -8565,11 +16523,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E0234-5477-3E49-AD04-B5AA0DD3B107}">
   <dimension ref="A1:BR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
@@ -13615,7 +21573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ34"/>
   <sheetViews>

--- a/32/32_orthogonal_vectors.xlsx
+++ b/32/32_orthogonal_vectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/cogNeuro/32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F404477-6B2B-044C-9088-55561507F341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2472C9F-3EFA-FD46-BC32-22695E5660B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1060" windowWidth="23100" windowHeight="18920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="33500" windowHeight="19520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="32_orthogonal_vectors" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>Vector #</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>These can serve as output vectors for intermediate categories</t>
+  </si>
+  <si>
+    <t>Abstract output:</t>
   </si>
 </sst>
 </file>
@@ -6906,10 +6909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17880E-106C-1641-BA9B-A263E2D87D7F}">
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:AG79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10184,7 +10187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10289,7 +10292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -10300,7 +10303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -10401,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>26</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -10805,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>25</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>13</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>17</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -11118,8 +11121,11 @@
       <c r="AH45" t="s">
         <v>86</v>
       </c>
+      <c r="AJ45" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -11223,8 +11229,11 @@
         <f>CORREL(B46:AG46,B47:AG47)</f>
         <v>0.75</v>
       </c>
+      <c r="AJ46">
+        <v>18</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -11325,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -11426,11 +11435,11 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <f t="shared" ref="AH47:AH61" si="1">CORREL(B48:AG48,B49:AG49)</f>
+        <f t="shared" ref="AH48:AH60" si="1">CORREL(B48:AG48,B49:AG49)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -11531,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -11635,8 +11644,11 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="AJ50">
+        <v>29</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -11737,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -11842,7 +11854,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -11943,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -12047,8 +12059,11 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="AJ54">
+        <v>15</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -12149,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -12254,7 +12269,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -12355,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -12459,8 +12474,11 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="AJ58">
+        <v>21</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -12561,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -12666,7 +12684,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -12767,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -14810,6 +14828,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
